--- a/src/module9/TestData.xlsx
+++ b/src/module9/TestData.xlsx
@@ -1,23 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A669CD9E-89E4-4197-B7F6-FB4BD5A292EE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100800_{38278B09-DAB3-475B-92F3-DBA3EC7947ED}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16515" windowHeight="4560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16545" windowHeight="3720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="1" r:id="rId2"/>
+    <sheet name="TestCases" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:S17"/>
+  <oleSize ref="A1:O10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
   <si>
     <t>Amit</t>
   </si>
@@ -46,6 +54,9 @@
     <t>Desuza</t>
   </si>
   <si>
+    <t>Address</t>
+  </si>
+  <si>
     <t>Gujrat</t>
   </si>
   <si>
@@ -79,7 +90,64 @@
     <t>password</t>
   </si>
   <si>
+    <t>TestSteps</t>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>TCID</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>openbrowser</t>
+  </si>
+  <si>
+    <t>navigate</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>http://facebook.com</t>
+  </si>
+  <si>
+    <t>Object / Locators</t>
+  </si>
+  <si>
+    <t>LoginTest</t>
+  </si>
+  <si>
+    <t>UserID</t>
+  </si>
+  <si>
+    <t>PWD</t>
+  </si>
+  <si>
+    <t>FillForm</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Close Bowser</t>
+  </si>
+  <si>
     <t>selenium</t>
+  </si>
+  <si>
+    <t>www</t>
   </si>
   <si>
     <t>selnium3@gmail.com</t>
@@ -89,7 +157,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,13 +165,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -130,12 +212,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -143,7 +230,8 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -424,7 +512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -435,34 +523,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="B3" s="6" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="A4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="6">
         <v>123456</v>
       </c>
     </row>
@@ -475,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,116 +575,324 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
+      <c r="C10" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>